--- a/Stability /Stability Comparison.xlsx
+++ b/Stability /Stability Comparison.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="0" windowWidth="25600" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Many" sheetId="1" r:id="rId1"/>
+    <sheet name="Focused" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>k value</t>
   </si>
@@ -32,17 +33,26 @@
   <si>
     <t>Image</t>
   </si>
+  <si>
+    <t>Note: Stability at t&gt;20 seems perfect? (no evals&gt;0)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -66,9 +76,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -83,19 +94,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>254000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2844800</xdr:colOff>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2989580</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>2311400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="15.jpg"/>
+      <xdr:rowOff>2296160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="15.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -114,32 +125,521 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4356100" y="635000"/>
-          <a:ext cx="2743200" cy="2057400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+          <a:off x="4318000" y="482600"/>
+          <a:ext cx="2926080" cy="2194560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2989580</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2296160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="1_5.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="3225800"/>
+          <a:ext cx="2926080" cy="2194560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2989580</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2296160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="_15.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="5969000"/>
+          <a:ext cx="2926080" cy="2194560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2989580</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2296160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="_015.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="8712200"/>
+          <a:ext cx="2926080" cy="2194560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2989580</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2296160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="_0015.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="11455400"/>
+          <a:ext cx="2926080" cy="2194560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2989580</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2296160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="_00015.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="14198600"/>
+          <a:ext cx="2926080" cy="2194560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2870200</xdr:colOff>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2989580</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>2400300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="1_5.jpg"/>
+      <xdr:rowOff>2296160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="8.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="2857500"/>
+          <a:ext cx="2926080" cy="2194560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2989580</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2270760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="_7.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="7581900"/>
+          <a:ext cx="2926080" cy="2194560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2989580</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2308860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15" descr="_07.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="12369800"/>
+          <a:ext cx="2926080" cy="2194560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2989580</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2283460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="_006.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="17094200"/>
+          <a:ext cx="2926080" cy="2194560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2989580</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2283460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17" descr="_0006.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="21844000"/>
+          <a:ext cx="2926080" cy="2194560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="_5.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="_6.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -158,32 +658,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4381500" y="3467100"/>
-          <a:ext cx="2743200" cy="2057400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>72571</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>453571</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2815771</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2510971</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="k_15.jpg"/>
+          <a:off x="4660900" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="_7_again.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -202,32 +702,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4336142" y="6331857"/>
-          <a:ext cx="2743200" cy="2057400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>417285</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2852057</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2474685</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="_015.jpg"/>
+          <a:off x="9321800" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="_8.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -246,32 +746,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4372428" y="9035142"/>
-          <a:ext cx="2743200" cy="2057400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>90714</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>344714</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2833914</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>2402114</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6" descr="_0015.jpg"/>
+          <a:off x="13982700" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="_9.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -290,32 +790,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4354285" y="11702143"/>
-          <a:ext cx="2743200" cy="2057400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>72571</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>254000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2815771</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>2311400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7" descr="_00015.jpg"/>
+          <a:off x="18643600" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="_58.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -334,8 +834,360 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4336142" y="14351000"/>
-          <a:ext cx="2743200" cy="2057400"/>
+          <a:off x="4673600" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="_55.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4673600" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="_57.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9321800" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="_625.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23304500" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="_65.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27965400" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15" descr="_675.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32626300" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="_57.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9313333" y="8233833"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19" descr="_6.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13970000" y="8233833"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20" descr="_7_again.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18626667" y="8127999"/>
+          <a:ext cx="4572000" cy="3429000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -669,20 +1521,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -696,7 +1548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="216" customHeight="1">
+    <row r="3" spans="1:6" ht="187" customHeight="1">
       <c r="A3">
         <v>15</v>
       </c>
@@ -706,60 +1558,118 @@
       <c r="C3">
         <v>4.67</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="216" customHeight="1">
+    <row r="4" spans="1:6" ht="187" customHeight="1">
       <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="187" customHeight="1">
+      <c r="A5">
         <v>1.5</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>18</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="216" customHeight="1">
-      <c r="A5">
+    <row r="6" spans="1:6" ht="187" customHeight="1">
+      <c r="A6">
+        <v>0.7</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="187" customHeight="1">
+      <c r="A7">
         <v>0.15</v>
       </c>
-      <c r="B5">
+      <c r="B7">
         <v>14</v>
       </c>
-      <c r="C5" s="1">
-        <v>7.9999999999999998E-16</v>
+      <c r="C7" s="1">
+        <v>8.0300000000000003E-16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="216" customHeight="1">
-      <c r="A6">
+    <row r="8" spans="1:6" ht="187" customHeight="1">
+      <c r="A8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8.4400000000000001E-16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="187" customHeight="1">
+      <c r="A9">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="B6">
+      <c r="B9">
         <v>13</v>
       </c>
-      <c r="C6" s="1">
-        <v>2E-16</v>
+      <c r="C9" s="1">
+        <v>2.2600000000000002E-16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="216" customHeight="1">
-      <c r="A7">
+    <row r="10" spans="1:6" ht="187" customHeight="1">
+      <c r="A10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.0299999999999999E-15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="187" customHeight="1">
+      <c r="A11">
         <v>1.5E-3</v>
       </c>
-      <c r="B7">
+      <c r="B11">
         <v>8</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C11" s="1">
         <v>2.3400000000000001E-16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="216" customHeight="1">
-      <c r="A8">
+    <row r="12" spans="1:6" ht="187" customHeight="1">
+      <c r="A12">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6.8299999999999996E-17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="187" customHeight="1">
+      <c r="A13">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="B8">
+      <c r="B13">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
-        <v>2.0000000000000001E-17</v>
+      <c r="C13" s="1">
+        <v>1.92E-17</v>
       </c>
     </row>
   </sheetData>
@@ -771,4 +1681,30 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="18" width="61.1640625" customWidth="1"/>
+    <col min="19" max="21" width="66" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="288" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Stability /Stability Comparison.xlsx
+++ b/Stability /Stability Comparison.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-80" yWindow="0" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Many" sheetId="1" r:id="rId1"/>
     <sheet name="Focused" sheetId="2" r:id="rId2"/>
+    <sheet name="Reg fixed" sheetId="3" r:id="rId3"/>
+    <sheet name="Reg fixed focused" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>k value</t>
   </si>
@@ -36,12 +38,15 @@
   <si>
     <t>Note: Stability at t&gt;20 seems perfect? (no evals&gt;0)</t>
   </si>
+  <si>
+    <t>check how negative steady state egienvalues are (unstable cases should be less negative)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -53,6 +58,22 @@
       <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -73,15 +94,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1187,6 +1212,1292 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18626667" y="8127999"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="reg_fix15.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="reg_fix8.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4660900" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="reg_fix1_5.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9321800" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="reg_fix_7.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13982700" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="reg_fix_15.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18643600" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="reg_fix_07.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23304500" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="reg_fix_015.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27965400" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="reg_fix_006.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32626300" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="reg_fix_0015.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37287200" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="reg_fix_0006.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="41948100" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="reg_fix_00015.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="46609000" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="reg_fix_06.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="reg_fix_0625.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4660900" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="reg_fix_065.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9321800" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="reg_fix_0675.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13982700" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="reg_fix_07.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18643600" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="reg_fix_0725.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23304500" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="reg_fix_075.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27965400" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="reg_fix_0775.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32626300" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="reg_fix_08.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37287200" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="reg_fix_005.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="reg_fix_00525.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4660900" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="reg_fix_0055.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9321800" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="reg_fix_00575.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13982700" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15" descr="reg_fix_006_again.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18643600" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="reg_fix_00625.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23304500" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17" descr="reg_fix_0065.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27965400" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18" descr="reg_fix_007.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37287200" y="0"/>
+          <a:ext cx="4572000" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3429000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19" descr="reg_fix_00675.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32626300" y="0"/>
           <a:ext cx="4572000" cy="3429000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1523,8 +2834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1674,6 +2985,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1687,7 +2999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -1707,4 +3019,60 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="14" width="61.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="324" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="K1:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="9" width="61.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="11:11" ht="288" customHeight="1">
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="11:11" ht="192" customHeight="1"/>
+    <row r="3" spans="11:11" ht="288" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>